--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW11.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW11.xlsx
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3377844410488655</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="H126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="J126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="K126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
       <c r="L126" t="n">
-        <v>0.920636845486551</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="E208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="F208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="G208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="I208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="J208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="K208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.05997932315088361</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="209">
@@ -8615,37 +8615,37 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="C225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="D225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="E225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="F225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="G225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="H225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="I225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="J225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="K225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
       <c r="L225" t="n">
-        <v>2.671720084764678</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="D230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="E230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="F230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="G230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="H230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="I230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="J230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="K230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
       <c r="L230" t="n">
-        <v>4.9934580529099</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="C253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="D253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="E253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="F253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="G253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="H253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="I253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="J253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="K253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
       <c r="L253" t="n">
-        <v>1.0995444520303925</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="D268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="E268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="F268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="G268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="H268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="I268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="J268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="K268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
       <c r="L268" t="n">
-        <v>1.7611093255652701</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="269">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="C274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="D274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="E274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="F274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="G274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="H274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="I274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="J274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="K274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
       <c r="L274" t="n">
-        <v>1.386010889270344</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="275">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>4.594268236823994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -14011,37 +14011,37 @@
         <v>366.0</v>
       </c>
       <c r="B367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="C367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="D367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="E367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="F367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="G367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="H367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="I367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="J367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="K367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
       <c r="L367" t="n">
-        <v>0.3888995094071175</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="368">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="E395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="F395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="I395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="J395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="K395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
       <c r="L395" t="n">
-        <v>1.3939623365355676</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -16747,37 +16747,37 @@
         <v>438.0</v>
       </c>
       <c r="B439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="C439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="D439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="E439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="F439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="G439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="H439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="I439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="J439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="K439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
       <c r="L439" t="n">
-        <v>3.997070664816509</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="440">
@@ -17089,37 +17089,37 @@
         <v>447.0</v>
       </c>
       <c r="B448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="C448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="D448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="E448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="F448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="G448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="H448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="I448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="J448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="K448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
       <c r="L448" t="n">
-        <v>2.036474653348932</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="449">
@@ -17887,37 +17887,37 @@
         <v>468.0</v>
       </c>
       <c r="B469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="C469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="D469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="E469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="F469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="G469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="H469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="I469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="J469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="K469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
       <c r="L469" t="n">
-        <v>1.5458595771233956</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="470">
@@ -18343,37 +18343,37 @@
         <v>480.0</v>
       </c>
       <c r="B481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="C481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="D481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="E481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="F481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="G481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="H481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="I481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="J481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="K481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
       <c r="L481" t="n">
-        <v>0.8485695485454938</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="482">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>0.417699258437758</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
